--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail7 Features.xlsx
@@ -724,7 +724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,29 +735,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -778,115 +776,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -903,72 +891,66 @@
         <v>2.507055543521377e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.8278638366065395</v>
+        <v>9.765810762850771e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.04274473274644697</v>
+        <v>7.847317731825194e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.765810762850771e-07</v>
+        <v>0.0254180704853715</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.847317731825194e-06</v>
+        <v>0.2105248742778555</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0254180704853715</v>
+        <v>0.04485510280347392</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2105248742778555</v>
+        <v>1.604019927858129</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04485510280347392</v>
+        <v>1.691715048203159</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.512753148111697</v>
+        <v>3.567506594252208</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.691715048203159</v>
+        <v>2.040347510793521e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.567506594252208</v>
+        <v>27886094.0981704</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.040347510793521e-14</v>
+        <v>3.892896460457118e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>27886094.0981704</v>
+        <v>15.86644094159328</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.892896460457118e-06</v>
+        <v>9.634724606015948e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>15.86644094159328</v>
+        <v>8.390360587391411</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.634724606015948e-05</v>
+        <v>1.256489938113731</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.390360587391411</v>
+        <v>0.006782667956002417</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.256489938113731</v>
+        <v>3.470781076424621</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006782667956002417</v>
+        <v>0.9529304873168951</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.470781076424621</v>
+        <v>1.840205668048576</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9529304873168951</v>
+        <v>11</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.840205668048576</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2593606257561913</v>
       </c>
     </row>
@@ -983,72 +965,66 @@
         <v>2.462540987572808e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.9083425132607523</v>
+        <v>9.765810762850771e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.2768935203371146</v>
+        <v>7.855872317476853e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.765810762850771e-07</v>
+        <v>0.04185647934984058</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.855872317476853e-06</v>
+        <v>0.1602770891668831</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04185647934984058</v>
+        <v>0.02739995070781727</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1602770891668831</v>
+        <v>1.598613927816298</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02739995070781727</v>
+        <v>1.660023196392427</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.501619967490179</v>
+        <v>3.671460560415689</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.660023196392427</v>
+        <v>1.926442172638633e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.671460560415689</v>
+        <v>29968478.07891881</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.926442172638633e-14</v>
+        <v>3.623503702460461e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>29968478.07891881</v>
+        <v>17.30156360060409</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.623503702460461e-06</v>
+        <v>8.819447877792687e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>17.30156360060409</v>
+        <v>8.443750324574287</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>8.819447877792687e-05</v>
+        <v>1.268874969925474</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.443750324574287</v>
+        <v>0.006287994657632676</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.268874969925474</v>
+        <v>3.533896008343127</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006287994657632676</v>
+        <v>0.9537609736510765</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.533896008343127</v>
+        <v>1.829889851814992</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9537609736510765</v>
+        <v>14</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.829889851814992</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2788635157273475</v>
       </c>
     </row>
@@ -1063,72 +1039,66 @@
         <v>2.34674759200994e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.9397094617866886</v>
+        <v>9.765810762850771e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.5077934382294744</v>
+        <v>7.867235170191922e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.765810762850771e-07</v>
+        <v>0.05135373983432526</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.867235170191922e-06</v>
+        <v>0.1494549357080345</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.05135373983432526</v>
+        <v>0.02496900240845225</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1494549357080345</v>
+        <v>1.640214627782563</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02496900240845225</v>
+        <v>1.714188720909536</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.546204066374388</v>
+        <v>3.80140093569738</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.714188720909536</v>
+        <v>1.796992882810936e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.80140093569738</v>
+        <v>31339110.78383733</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.796992882810936e-14</v>
+        <v>3.531964461002241e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>31339110.78383733</v>
+        <v>17.64898346829662</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.531964461002241e-06</v>
+        <v>0.0001002546559041461</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>17.64898346829662</v>
+        <v>7.500482193857786</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001002546559041461</v>
+        <v>2.388144001918556</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.500482193857786</v>
+        <v>0.005640049550607893</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.388144001918556</v>
+        <v>3.708151006539739</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.005640049550607893</v>
+        <v>0.9553057665082594</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.708151006539739</v>
+        <v>1.788826400380001</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9553057665082594</v>
+        <v>11</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.788826400380001</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2565489435996238</v>
       </c>
     </row>
@@ -1143,72 +1113,66 @@
         <v>2.185201233826981e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.87161796199959</v>
+        <v>9.730511662039064e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.4550003226935804</v>
+        <v>7.879411359207336e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.730511662039064e-07</v>
+        <v>0.05525002739734181</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.879411359207336e-06</v>
+        <v>0.1597492504597287</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05525002739734181</v>
+        <v>0.02857180765611574</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1597492504597287</v>
+        <v>1.642399533578287</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02857180765611574</v>
+        <v>1.636101731126874</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.551465275236048</v>
+        <v>3.880599948844284</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.636101731126874</v>
+        <v>1.460068859124483e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.880599948844284</v>
+        <v>37228576.06628875</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.460068859124483e-14</v>
+        <v>2.972286314388028e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>37228576.06628875</v>
+        <v>20.23607075313872</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.972286314388028e-06</v>
+        <v>8.596344339935733e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>20.23607075313872</v>
+        <v>6.008980285320863</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>8.596344339935733e-05</v>
+        <v>2.469362489301535</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.008980285320863</v>
+        <v>0.003103954609930521</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.469362489301535</v>
+        <v>3.725798803009682</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.003103954609930521</v>
+        <v>0.954601665373164</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.725798803009682</v>
+        <v>1.818308914047538</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.954601665373164</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.818308914047538</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.272617534067689</v>
       </c>
     </row>
@@ -1223,72 +1187,66 @@
         <v>2.014729423557092e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.722326552117458</v>
+        <v>9.163433713491986e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.1073710286613729</v>
+        <v>7.891005070979812e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.163433713491986e-07</v>
+        <v>0.05440794998036628</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.891005070979812e-06</v>
+        <v>0.1710370021106316</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05440794998036628</v>
+        <v>0.03220285197776519</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1710370021106316</v>
+        <v>1.670964252901654</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03220285197776519</v>
+        <v>1.839197085255314</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.584738135253003</v>
+        <v>3.985416749450915</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.839197085255314</v>
+        <v>1.384278909527075e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.985416749450915</v>
+        <v>38875983.08446205</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.384278909527075e-14</v>
+        <v>2.875564751224055e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>38875983.08446205</v>
+        <v>20.92118939823619</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.875564751224055e-06</v>
+        <v>8.449579326733619e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>20.92118939823619</v>
+        <v>6.496625465653398</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>8.449579326733619e-05</v>
+        <v>1.329862695925077</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.496625465653398</v>
+        <v>0.003566241486304471</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.329862695925077</v>
+        <v>3.5723574860228</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.003566241486304471</v>
+        <v>0.9561174367713017</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.5723574860228</v>
+        <v>1.762280130823358</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9561174367713017</v>
+        <v>10</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.762280130823358</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2788249721214278</v>
       </c>
     </row>
@@ -1303,72 +1261,66 @@
         <v>1.865699007008354e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.5596262886412147</v>
+        <v>8.26424320455987e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.2880542479460524</v>
+        <v>7.901181546032142e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.26424320455987e-07</v>
+        <v>0.05054756984319093</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.901181546032142e-06</v>
+        <v>0.1764714839375174</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.05054756984319093</v>
+        <v>0.03368433077903343</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1764714839375174</v>
+        <v>1.679188584705945</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03368433077903343</v>
+        <v>1.877646762712439</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.59912692863982</v>
+        <v>3.923845497704924</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.877646762712439</v>
+        <v>1.428062741002394e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.923845497704924</v>
+        <v>38593520.9647085</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.428062741002394e-14</v>
+        <v>2.912306658932495e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>38593520.9647085</v>
+        <v>21.27042130932118</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.912306658932495e-06</v>
+        <v>9.635256748522094e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>21.27042130932118</v>
+        <v>7.798538962128944</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>9.635256748522094e-05</v>
+        <v>1.290135028249721</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.798538962128944</v>
+        <v>0.005859894325377001</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.290135028249721</v>
+        <v>3.394114464104035</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.005859894325377001</v>
+        <v>0.9549238436554747</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.394114464104035</v>
+        <v>1.7509323892754</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9549238436554747</v>
+        <v>10</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.7509323892754</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.268552761431513</v>
       </c>
     </row>
@@ -1383,72 +1335,66 @@
         <v>1.742765037647898e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.416210029086416</v>
+        <v>7.547266667343019e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.6165508748479005</v>
+        <v>7.910040364707283e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.547266667343019e-07</v>
+        <v>0.04799893047341829</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.910040364707283e-06</v>
+        <v>0.1830315597577296</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.04799893047341829</v>
+        <v>0.03579613115218257</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1830315597577296</v>
+        <v>1.646519169508107</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03579613115218257</v>
+        <v>1.902488326709465</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.566818015327227</v>
+        <v>3.847972680696593</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.902488326709465</v>
+        <v>1.484933911765635e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.847972680696593</v>
+        <v>37432460.78550048</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.484933911765635e-14</v>
+        <v>2.966245612778596e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>37432460.78550048</v>
+        <v>20.80673241765194</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.966245612778596e-06</v>
+        <v>9.570032618052403e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>20.80673241765194</v>
+        <v>7.859055386240628</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9.570032618052403e-05</v>
+        <v>1.24706280001304</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.859055386240628</v>
+        <v>0.005910906871133625</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.24706280001304</v>
+        <v>3.401002311610927</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.005910906871133625</v>
+        <v>0.9524476473775605</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.401002311610927</v>
+        <v>1.80664707714861</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9524476473775605</v>
+        <v>10</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.80664707714861</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2728447449631399</v>
       </c>
     </row>
@@ -1463,72 +1409,66 @@
         <v>1.639379816352072e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2877780405495905</v>
+        <v>6.881043613723263e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9048153246857868</v>
+        <v>7.917868000561551e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.881043613723263e-07</v>
+        <v>0.04402654570225852</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.917868000561551e-06</v>
+        <v>0.1891648009796828</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.04402654570225852</v>
+        <v>0.03770789995253931</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1891648009796828</v>
+        <v>1.651953854189872</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03770789995253931</v>
+        <v>1.732107217400134</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.571254456912741</v>
+        <v>3.669978890558999</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.732107217400134</v>
+        <v>1.632465279137181e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.669978890558999</v>
+        <v>34731748.03575298</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.632465279137181e-14</v>
+        <v>3.21772016238416e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>34731748.03575298</v>
+        <v>19.69233596463408</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.21772016238416e-06</v>
+        <v>8.629290980079478e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>19.69233596463408</v>
+        <v>7.344541768671102</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>8.629290980079478e-05</v>
+        <v>1.989007808207005</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.344541768671102</v>
+        <v>0.004654837492619838</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.989007808207005</v>
+        <v>3.658715624997261</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.004654837492619838</v>
+        <v>0.9514975491851118</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.658715624997261</v>
+        <v>1.803004263995163</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9514975491851118</v>
+        <v>7</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.803004263995163</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2840089784979553</v>
       </c>
     </row>
@@ -1543,72 +1483,66 @@
         <v>1.560575044521345e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.2036672373271137</v>
+        <v>5.988517876325185e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.058898378379112</v>
+        <v>7.924288325452085e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.988517876325185e-07</v>
+        <v>0.03565805899778365</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.924288325452085e-06</v>
+        <v>0.1869409504239577</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03565805899778365</v>
+        <v>0.03619250138720755</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1869409504239577</v>
+        <v>1.657908434280811</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03619250138720755</v>
+        <v>1.726586918626193</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.572175087213968</v>
+        <v>3.776132501323441</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.726586918626193</v>
+        <v>1.5419725256214e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.776132501323441</v>
+        <v>38793719.8379839</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.5419725256214e-14</v>
+        <v>2.907961681255287e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>38793719.8379839</v>
+        <v>23.2059571401421</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.907961681255287e-06</v>
+        <v>9.610540377550662e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>23.2059571401421</v>
+        <v>8.407730848938591</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>9.610540377550662e-05</v>
+        <v>2.11595241693335</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.407730848938591</v>
+        <v>0.00679368503706509</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>2.11595241693335</v>
+        <v>3.621531181779271</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.00679368503706509</v>
+        <v>0.9509034216722821</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.621531181779271</v>
+        <v>1.76120343020013</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9509034216722821</v>
+        <v>10</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.76120343020013</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3014661226903223</v>
       </c>
     </row>
@@ -1623,72 +1557,66 @@
         <v>1.511554073693084e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1881979051073873</v>
+        <v>5.223814838404118e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.038729607318402</v>
+        <v>7.929022343595219e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.223814838404118e-07</v>
+        <v>0.02655970542051301</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.929022343595219e-06</v>
+        <v>0.1787441332996083</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02655970542051301</v>
+        <v>0.03263965342859272</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1787441332996083</v>
+        <v>1.657718162473089</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03263965342859272</v>
+        <v>1.655131127447798</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.572623193216022</v>
+        <v>3.947044796069608</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.655131127447798</v>
+        <v>1.411324805611971e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.947044796069608</v>
+        <v>42158387.94628678</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.411324805611971e-14</v>
+        <v>2.674065331238218e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>42158387.94628678</v>
+        <v>25.08389456990502</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.674065331238218e-06</v>
+        <v>8.883421875099283e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>25.08389456990502</v>
+        <v>6.825556585234279</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>8.883421875099283e-05</v>
+        <v>2.050771507522097</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>6.825556585234279</v>
+        <v>0.00413862836639498</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>2.050771507522097</v>
+        <v>3.53357279864648</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.00413862836639498</v>
+        <v>0.9503167615215159</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.53357279864648</v>
+        <v>1.79877061621128</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9503167615215159</v>
+        <v>10</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.79877061621128</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3197734614493799</v>
       </c>
     </row>
@@ -1703,72 +1631,66 @@
         <v>1.48197755334891e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.2088975066753753</v>
+        <v>5.223814838404118e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.958564808103247</v>
+        <v>7.93255112341738e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.223814838404118e-07</v>
+        <v>0.02085508328723026</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.93255112341738e-06</v>
+        <v>0.1764879784862368</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02085508328723026</v>
+        <v>0.03157687781097173</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1764879784862368</v>
+        <v>1.638902218306622</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03157687781097173</v>
+        <v>1.897385398952545</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.55447126867722</v>
+        <v>3.923362005705959</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.897385398952545</v>
+        <v>1.515523637289616e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.923362005705959</v>
+        <v>39492263.90941567</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.515523637289616e-14</v>
+        <v>2.822237027587941e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>39492263.90941567</v>
+        <v>23.63669631757693</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.822237027587941e-06</v>
+        <v>9.182776058448347e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>23.63669631757693</v>
+        <v>6.097364624760731</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>9.182776058448347e-05</v>
+        <v>1.325306943360982</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>6.097364624760731</v>
+        <v>0.003413959201711469</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.325306943360982</v>
+        <v>3.353375613302026</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.003413959201711469</v>
+        <v>0.9504248734369704</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.353375613302026</v>
+        <v>1.786931394700633</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9504248734369704</v>
+        <v>12</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.786931394700633</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3104278604425564</v>
       </c>
     </row>
@@ -1783,72 +1705,66 @@
         <v>1.462764974424099e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.2352377149349778</v>
+        <v>5.223814838404118e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.8789971160787391</v>
+        <v>7.935104178771396e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.223814838404118e-07</v>
+        <v>0.01348111365974849</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.935104178771396e-06</v>
+        <v>0.1774506727319331</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.01348111365974849</v>
+        <v>0.03166325207813402</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1774506727319331</v>
+        <v>1.63779401794989</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03166325207813402</v>
+        <v>1.901223928677515</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.554948294576886</v>
+        <v>3.543695471722611</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.901223928677515</v>
+        <v>1.857661973410443e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.543695471722611</v>
+        <v>32371133.33689653</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.857661973410443e-14</v>
+        <v>3.436443838466777e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>32371133.33689653</v>
+        <v>19.46625913415732</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.436443838466777e-06</v>
+        <v>0.000100889232004788</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>19.46625913415732</v>
+        <v>6.784311849726878</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000100889232004788</v>
+        <v>1.422881268287558</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.784311849726878</v>
+        <v>0.004643617308679572</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.422881268287558</v>
+        <v>3.270725136038412</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.004643617308679572</v>
+        <v>0.9498382018471981</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.270725136038412</v>
+        <v>1.802339228384431</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9498382018471981</v>
+        <v>12</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.802339228384431</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3033195780273348</v>
       </c>
     </row>
@@ -1863,72 +1779,66 @@
         <v>1.451247164404879e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.2516591748244216</v>
+        <v>5.223814838404118e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.8238388467056965</v>
+        <v>7.936575561599179e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.223814838404118e-07</v>
+        <v>0.00719528688737844</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.936575561599179e-06</v>
+        <v>0.1818809375689969</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.00719528688737844</v>
+        <v>0.03312784691979095</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1818809375689969</v>
+        <v>1.636602007502846</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03312784691979095</v>
+        <v>1.799205630853758</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.550293423131511</v>
+        <v>3.726679964078515</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.799205630853758</v>
+        <v>1.67971376587414e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.726679964078515</v>
+        <v>35798839.28029121</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.67971376587414e-14</v>
+        <v>3.106983320790669e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>35798839.28029121</v>
+        <v>21.52648756293841</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.106983320790669e-06</v>
+        <v>0.0001121768490625819</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>21.52648756293841</v>
+        <v>8.643737693635767</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001121768490625819</v>
+        <v>1.663259831700183</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.643737693635767</v>
+        <v>0.008381203683898893</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.663259831700183</v>
+        <v>3.230875069084533</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008381203683898893</v>
+        <v>0.9485410408270178</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.230875069084533</v>
+        <v>1.827635752868643</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9485410408270178</v>
+        <v>13</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.827635752868643</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3096374508101913</v>
       </c>
     </row>
@@ -1943,72 +1853,66 @@
         <v>1.444750565739866e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.2578496373305101</v>
+        <v>5.223814838404118e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7944029895450422</v>
+        <v>7.937301376765837e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.223814838404118e-07</v>
+        <v>0.003029577954916733</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.937301376765837e-06</v>
+        <v>0.1854070470751387</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.003029577954916733</v>
+        <v>0.03438203402623046</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1854070470751387</v>
+        <v>1.661175521789943</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03438203402623046</v>
+        <v>1.677703224710569</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.579229295088328</v>
+        <v>3.713265364527278</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.677703224710569</v>
+        <v>1.691872007357371e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.713265364527278</v>
+        <v>34755883.3992244</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.691872007357371e-14</v>
+        <v>3.211811212761704e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>34755883.3992244</v>
+        <v>20.4373304956028</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.211811212761704e-06</v>
+        <v>0.0001104478290440469</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>20.4373304956028</v>
+        <v>8.518857800950702</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001104478290440469</v>
+        <v>1.782659579911031</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.518857800950702</v>
+        <v>0.008015302579504436</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.782659579911031</v>
+        <v>3.356844049056982</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008015302579504436</v>
+        <v>0.9504295084312897</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.356844049056982</v>
+        <v>1.816405720891866</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9504295084312897</v>
+        <v>12</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.816405720891866</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3040282929027774</v>
       </c>
     </row>
@@ -2023,72 +1927,66 @@
         <v>1.442447584293982e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.2590193581499338</v>
+        <v>5.223814838404118e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.785152949230179</v>
+        <v>7.937532370183761e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.223814838404118e-07</v>
+        <v>0.0006157940418946531</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.937532370183761e-06</v>
+        <v>0.187107262135821</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.0006157940418946531</v>
+        <v>0.03500714280809679</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.187107262135821</v>
+        <v>1.695329040489117</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03500714280809679</v>
+        <v>1.796963576697952</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.618659960842882</v>
+        <v>3.698067111429975</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.796963576697952</v>
+        <v>1.70580703700896e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.698067111429975</v>
+        <v>33815129.89401101</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.70580703700896e-14</v>
+        <v>3.33459377821873e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>33815129.89401101</v>
+        <v>19.50527248589011</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.33459377821873e-06</v>
+        <v>0.000102716501226402</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>19.50527248589011</v>
+        <v>6.954394772335129</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000102716501226402</v>
+        <v>1.770320703538464</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.954394772335129</v>
+        <v>0.004967740461724759</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.770320703538464</v>
+        <v>3.413257409779494</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.004967740461724759</v>
+        <v>0.9511265926006363</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.413257409779494</v>
+        <v>1.809678450075733</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9511265926006363</v>
+        <v>11</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.809678450075733</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2941862352280231</v>
       </c>
     </row>
@@ -2103,72 +2001,66 @@
         <v>1.440636993647364e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.2587417905110377</v>
+        <v>5.223814838404118e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7799276945502953</v>
+        <v>7.937689089902034e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.223814838404118e-07</v>
+        <v>0.002185527881714131</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.937689089902034e-06</v>
+        <v>0.1858576103659958</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.002185527881714131</v>
+        <v>0.034542273121369</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1858576103659958</v>
+        <v>1.70875111975195</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.034542273121369</v>
+        <v>1.848528544611969</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.63517546317856</v>
+        <v>3.9252226871399</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.848528544611969</v>
+        <v>1.514087164224922e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.9252226871399</v>
+        <v>38136537.83125352</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.514087164224922e-14</v>
+        <v>2.96705928067019e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>38136537.83125352</v>
+        <v>22.02081585138546</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.96705928067019e-06</v>
+        <v>0.0001028102468774973</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>22.02081585138546</v>
+        <v>6.641606581816693</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001028102468774973</v>
+        <v>1.555854725271016</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>6.641606581816693</v>
+        <v>0.004535056424506296</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.555854725271016</v>
+        <v>3.331659005246507</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.004535056424506296</v>
+        <v>0.9505022494519799</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.331659005246507</v>
+        <v>1.796678756437204</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9505022494519799</v>
+        <v>11</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.796678756437204</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2832716275662402</v>
       </c>
     </row>
@@ -2545,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.441429297395298</v>
+        <v>1.452141025636268</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.780735746915908</v>
@@ -2634,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.433297628142101</v>
+        <v>1.441372703944966</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.678817114281227</v>
@@ -2723,7 +2615,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.467567733749482</v>
+        <v>1.479059710937296</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.892994262638484</v>
@@ -2812,7 +2704,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.479531393622114</v>
+        <v>1.492599878267675</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.800728325150424</v>
@@ -2901,7 +2793,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.481425502787483</v>
+        <v>1.499467082435875</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.743124199343828</v>
@@ -2990,7 +2882,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.497788744109984</v>
+        <v>1.512968493100469</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.01378371244008</v>
@@ -3079,7 +2971,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.502562352968016</v>
+        <v>1.52071223630392</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.786387931524692</v>
@@ -3168,7 +3060,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.49909346699176</v>
+        <v>1.51711237311747</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.953780268853898</v>
@@ -3257,7 +3149,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.505262145773323</v>
+        <v>1.514483688817653</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.650029539512506</v>
@@ -3346,7 +3238,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.501626309677239</v>
+        <v>1.511377700580581</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.679546462804443</v>
@@ -3435,7 +3327,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.492514441127596</v>
+        <v>1.503622840107419</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.564987741536221</v>
@@ -3524,7 +3416,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.500220037937146</v>
+        <v>1.51033330974172</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.019830241260504</v>
@@ -3613,7 +3505,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.524041601941812</v>
+        <v>1.543504186744786</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.978894066473069</v>
@@ -3702,7 +3594,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.521858656244295</v>
+        <v>1.536046369105215</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.881730718222408</v>
@@ -3791,7 +3683,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.521886214464607</v>
+        <v>1.53574477210647</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.717101249549673</v>
@@ -3880,7 +3772,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.506970347551589</v>
+        <v>1.515414540330278</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.628839923170573</v>
@@ -3969,7 +3861,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.501729012703125</v>
+        <v>1.514785849699401</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.588481868404569</v>
@@ -4058,7 +3950,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.491993748562635</v>
+        <v>1.50356433420769</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.454297990360885</v>
@@ -4147,7 +4039,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.485511924629779</v>
+        <v>1.495313024870195</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.646917790764978</v>
@@ -4236,7 +4128,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.476322951866236</v>
+        <v>1.484916757935969</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.644547754496042</v>
@@ -4325,7 +4217,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.467886408155683</v>
+        <v>1.480522451526429</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.610407256359996</v>
@@ -4414,7 +4306,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.460439769975643</v>
+        <v>1.477150827402655</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.755382638808532</v>
@@ -4503,7 +4395,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.451466521134863</v>
+        <v>1.465594223752861</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.761140515982085</v>
@@ -4592,7 +4484,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.452631648202589</v>
+        <v>1.472333092562426</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.584802117341058</v>
@@ -4681,7 +4573,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.468153970032563</v>
+        <v>1.490881510420938</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.65926484384146</v>
@@ -4770,7 +4662,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.474907463843742</v>
+        <v>1.494457957858338</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.751799912922132</v>
@@ -4859,7 +4751,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.476082903217154</v>
+        <v>1.497769645356722</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.644328281928312</v>
@@ -4948,7 +4840,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.46969233794202</v>
+        <v>1.489092748086406</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.769533102002266</v>
@@ -5037,7 +4929,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.461098407278516</v>
+        <v>1.485186849480895</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.653851691885308</v>
@@ -5126,7 +5018,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.468416991095396</v>
+        <v>1.48894618590318</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.625745139914132</v>
@@ -5215,7 +5107,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.480970171345526</v>
+        <v>1.50137438678141</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.628087301847603</v>
@@ -5304,7 +5196,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.505747068423279</v>
+        <v>1.524909149889297</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.95345901041672</v>
@@ -5393,7 +5285,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.499976394677806</v>
+        <v>1.509148545185516</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.054346374285822</v>
@@ -5482,7 +5374,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.498181043585024</v>
+        <v>1.507326255227524</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.958738032400138</v>
@@ -5571,7 +5463,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.47920515437604</v>
+        <v>1.46961449459017</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.163206605951614</v>
@@ -5660,7 +5552,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.469982513296604</v>
+        <v>1.457698806506623</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.465653010922221</v>
@@ -5749,7 +5641,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.464839147265684</v>
+        <v>1.443581038724689</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.307756338717069</v>
@@ -5838,7 +5730,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.458675245027</v>
+        <v>1.432489352487925</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.304695652118015</v>
@@ -5927,7 +5819,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.429300292011167</v>
+        <v>1.394174867280671</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.497553038784051</v>
@@ -6016,7 +5908,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.392393832390401</v>
+        <v>1.355430287891732</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.602496874747822</v>
@@ -6105,7 +5997,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.38508103180267</v>
+        <v>1.343675913187755</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.524925450712532</v>
@@ -6194,7 +6086,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.37981541663764</v>
+        <v>1.334073615548612</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.6758787441764</v>
@@ -6283,7 +6175,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.37513322390115</v>
+        <v>1.324078712877697</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.462827270180028</v>
@@ -6372,7 +6264,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.378342805422611</v>
+        <v>1.328334337940698</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.556177943193578</v>
@@ -6461,7 +6353,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.370477867155228</v>
+        <v>1.322648566818805</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.508237161264721</v>
@@ -6550,7 +6442,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.361991294099447</v>
+        <v>1.312903394955273</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.78869792709442</v>
@@ -6639,7 +6531,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.355625705530004</v>
+        <v>1.305106913926239</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.789973024385299</v>
@@ -6728,7 +6620,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.366595729907273</v>
+        <v>1.314560816702734</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.519507536945195</v>
@@ -6817,7 +6709,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.36508405485909</v>
+        <v>1.310354032772336</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.544291298001987</v>
@@ -6906,7 +6798,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.367414383073793</v>
+        <v>1.322784598524923</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.700565160184347</v>
@@ -6995,7 +6887,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.370096971808881</v>
+        <v>1.327966959763053</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.440400882817684</v>
@@ -7084,7 +6976,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.380729838936563</v>
+        <v>1.342316863814184</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.653252233631834</v>
@@ -7173,7 +7065,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.370180251698294</v>
+        <v>1.333089489229784</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.376699057933056</v>
@@ -7262,7 +7154,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.387227622566121</v>
+        <v>1.354319432418997</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.361646588252866</v>
@@ -7351,7 +7243,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.391285232309186</v>
+        <v>1.363371366100195</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.601312932071353</v>
@@ -7440,7 +7332,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.395522489846031</v>
+        <v>1.373525687990789</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.50662653433112</v>
@@ -7529,7 +7421,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.403177305666865</v>
+        <v>1.384460843884026</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.428449015991119</v>
@@ -7618,7 +7510,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.400529494987467</v>
+        <v>1.387417120314238</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.332413618732038</v>
@@ -7707,7 +7599,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.386685330493386</v>
+        <v>1.372576451970872</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.466277291726056</v>
@@ -7796,7 +7688,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.40562244023157</v>
+        <v>1.391403384060357</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.435995604752117</v>
@@ -7885,7 +7777,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.402718442135482</v>
+        <v>1.391030111950792</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.451748270383158</v>
@@ -8171,7 +8063,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.479705213154802</v>
+        <v>1.506106964762961</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.48101326680822</v>
@@ -8260,7 +8152,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.48538593465951</v>
+        <v>1.510193205927036</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.45771670691172</v>
@@ -8349,7 +8241,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.505387166093118</v>
+        <v>1.529306334198874</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.423174913825879</v>
@@ -8438,7 +8330,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.504346293473897</v>
+        <v>1.526022707832667</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.483728103139927</v>
@@ -8527,7 +8419,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.516698949735508</v>
+        <v>1.538562957142426</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.225098734835432</v>
@@ -8616,7 +8508,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.530289702994973</v>
+        <v>1.544443542220635</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.446665884755091</v>
@@ -8705,7 +8597,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.546478442011012</v>
+        <v>1.558627994750424</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.249203083786083</v>
@@ -8794,7 +8686,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.53042122141279</v>
+        <v>1.541235671658922</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.340446380157345</v>
@@ -8883,7 +8775,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.497393356652485</v>
+        <v>1.511442764519818</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.319544839170423</v>
@@ -8972,7 +8864,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.510763535509521</v>
+        <v>1.520070042985231</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.34934565426382</v>
@@ -9061,7 +8953,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.532048321769121</v>
+        <v>1.535646512016479</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.182462666116835</v>
@@ -9150,7 +9042,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.545389216207905</v>
+        <v>1.54843129261478</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.552808127418207</v>
@@ -9239,7 +9131,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.536155978302969</v>
+        <v>1.539200659850599</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.68919423085266</v>
@@ -9328,7 +9220,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.527557163625632</v>
+        <v>1.529528912320585</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.642156157675863</v>
@@ -9417,7 +9309,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.503788829012648</v>
+        <v>1.5133927899638</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.510084889219398</v>
@@ -9506,7 +9398,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.487247716985193</v>
+        <v>1.497289777120183</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.465947599939409</v>
@@ -9595,7 +9487,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.481030725958802</v>
+        <v>1.490135957712733</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.552455198755049</v>
@@ -9684,7 +9576,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.458356514921794</v>
+        <v>1.468199851588659</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.645581237960025</v>
@@ -9773,7 +9665,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.465996288493815</v>
+        <v>1.475940180850033</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.644272770505817</v>
@@ -9862,7 +9754,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.473255683523923</v>
+        <v>1.481987115064182</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.630504214769741</v>
@@ -9951,7 +9843,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.475909940231367</v>
+        <v>1.487301794976587</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.585525713731104</v>
@@ -10040,7 +9932,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.480246912258802</v>
+        <v>1.493495569879987</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.436735116505039</v>
@@ -10129,7 +10021,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.467598664666952</v>
+        <v>1.480983803798095</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.493963471602165</v>
@@ -10218,7 +10110,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.486330269039706</v>
+        <v>1.499382706817009</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.588075912981337</v>
@@ -10307,7 +10199,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.479437589551363</v>
+        <v>1.493927577991044</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.680590458103216</v>
@@ -10396,7 +10288,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.485167092775829</v>
+        <v>1.499009946507571</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.654164752571511</v>
@@ -10485,7 +10377,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.479289479017056</v>
+        <v>1.491819752719349</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.429239974499275</v>
@@ -10574,7 +10466,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.475188661975551</v>
+        <v>1.482375432998175</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.688809886900769</v>
@@ -10663,7 +10555,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.478311607220693</v>
+        <v>1.482466981354356</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.425407384867132</v>
@@ -10752,7 +10644,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.491978132657124</v>
+        <v>1.487573206796153</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.576737685667213</v>
@@ -10841,7 +10733,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.507207109992554</v>
+        <v>1.498315285662291</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.942438102516952</v>
@@ -10930,7 +10822,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.504597376859978</v>
+        <v>1.496480809461536</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.681579666903468</v>
@@ -11019,7 +10911,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.517362859108047</v>
+        <v>1.498748116674146</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.119722620877505</v>
@@ -11108,7 +11000,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.520621896521287</v>
+        <v>1.499135809904406</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.791666922903019</v>
@@ -11197,7 +11089,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.504348608988614</v>
+        <v>1.481975496901321</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.834875501224267</v>
@@ -11286,7 +11178,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.490032380234079</v>
+        <v>1.467870461786659</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.874880856103921</v>
@@ -11375,7 +11267,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.484784660629774</v>
+        <v>1.459637375393289</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.647463450625924</v>
@@ -11464,7 +11356,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.5095172372484</v>
+        <v>1.487025005591614</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.838217898335431</v>
@@ -11553,7 +11445,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.505216675199644</v>
+        <v>1.485011810786846</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.813524603144978</v>
@@ -11642,7 +11534,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.490730294925652</v>
+        <v>1.471499152689063</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.873925477745667</v>
@@ -11731,7 +11623,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.450244151915207</v>
+        <v>1.435061507868238</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.159202697473608</v>
@@ -11820,7 +11712,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.425394959349976</v>
+        <v>1.404239139233603</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.255388112274671</v>
@@ -11909,7 +11801,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.419852719707319</v>
+        <v>1.39172754072155</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.417948013848465</v>
@@ -11998,7 +11890,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.427470420602125</v>
+        <v>1.402641539426417</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.342018136491645</v>
@@ -12087,7 +11979,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.39174920767909</v>
+        <v>1.371264718882917</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.213721757918966</v>
@@ -12176,7 +12068,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.372253140625575</v>
+        <v>1.349747409547119</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.226269843567841</v>
@@ -12265,7 +12157,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.372469095511682</v>
+        <v>1.344061619726936</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.194401213203839</v>
@@ -12354,7 +12246,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.376697727397974</v>
+        <v>1.345478200378601</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.239469586611837</v>
@@ -12443,7 +12335,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.377059052169079</v>
+        <v>1.338583181472291</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.323442493472288</v>
@@ -12532,7 +12424,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.369492157538326</v>
+        <v>1.338935862088323</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.331560284241627</v>
@@ -12621,7 +12513,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.377276652789283</v>
+        <v>1.346241130063054</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.320703052917098</v>
@@ -12710,7 +12602,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.381346328878049</v>
+        <v>1.353277213810499</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.249453411990941</v>
@@ -12799,7 +12691,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.336816187766884</v>
+        <v>1.302448776755188</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.264702784636511</v>
@@ -12888,7 +12780,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.332841323514292</v>
+        <v>1.295604414882136</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.283632939664109</v>
@@ -12977,7 +12869,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.313909031801729</v>
+        <v>1.275555560656228</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.248102018434269</v>
@@ -13066,7 +12958,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.325743646749848</v>
+        <v>1.286502472539665</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.321975950770276</v>
@@ -13155,7 +13047,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.332899580591089</v>
+        <v>1.295539428345935</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.195290817118754</v>
@@ -13244,7 +13136,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.320526937965753</v>
+        <v>1.288091240343137</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.229154824263589</v>
@@ -13333,7 +13225,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.305480214515969</v>
+        <v>1.272080865644021</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.174754791281421</v>
@@ -13422,7 +13314,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.324624591614493</v>
+        <v>1.291436189129629</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.111418937184872</v>
@@ -13511,7 +13403,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.3302053626369</v>
+        <v>1.29882005563572</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.139602895689515</v>
@@ -13797,7 +13689,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.281254700345424</v>
+        <v>1.285990192988303</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.528632640783333</v>
@@ -13886,7 +13778,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.281780653694725</v>
+        <v>1.285986337425902</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.52838167649917</v>
@@ -13975,7 +13867,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.284401049577157</v>
+        <v>1.289643160640374</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.515720240020162</v>
@@ -14064,7 +13956,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.314213330101931</v>
+        <v>1.317431977828052</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.513715476254397</v>
@@ -14153,7 +14045,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.31612385354463</v>
+        <v>1.320915697803739</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.519137831754687</v>
@@ -14242,7 +14134,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.310983304617018</v>
+        <v>1.314844557822866</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.514779101215551</v>
@@ -14331,7 +14223,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.301941125680488</v>
+        <v>1.302739989048954</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.513103234195882</v>
@@ -14420,7 +14312,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.297686744098413</v>
+        <v>1.295477094759362</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.50630395355977</v>
@@ -14509,7 +14401,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.293926590948922</v>
+        <v>1.289033220094272</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.510422327920693</v>
@@ -14598,7 +14490,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.291473223265163</v>
+        <v>1.286735624683592</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.494214721890849</v>
@@ -14687,7 +14579,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.401032547755335</v>
+        <v>1.399013720219048</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.419596044427734</v>
@@ -14776,7 +14668,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.484595155929884</v>
+        <v>1.479688388265426</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.211027702905392</v>
@@ -14865,7 +14757,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.497698904680969</v>
+        <v>1.490310316070221</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.472313528478328</v>
@@ -14954,7 +14846,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.489843839506025</v>
+        <v>1.481112131621886</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.531069066494009</v>
@@ -15043,7 +14935,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.50700064814107</v>
+        <v>1.497168401583574</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.530536882112179</v>
@@ -15132,7 +15024,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.528124169044083</v>
+        <v>1.516699561276357</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.745220832824133</v>
@@ -15221,7 +15113,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.522160418731147</v>
+        <v>1.513992878777155</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.833740251341891</v>
@@ -15310,7 +15202,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.515675121191596</v>
+        <v>1.507442981909379</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.602117351764957</v>
@@ -15399,7 +15291,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.518870822632433</v>
+        <v>1.509113529593274</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.710031297818291</v>
@@ -15488,7 +15380,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.516942680859494</v>
+        <v>1.503225014203578</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.801865599852117</v>
@@ -15577,7 +15469,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.520645235080575</v>
+        <v>1.507215909915143</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.551436921965675</v>
@@ -15666,7 +15558,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.534317950183891</v>
+        <v>1.525628573047661</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.700025248987637</v>
@@ -15755,7 +15647,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.526229996008164</v>
+        <v>1.51823983836544</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.87000211214633</v>
@@ -15844,7 +15736,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.533442249939871</v>
+        <v>1.527314819848737</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.7033695882175</v>
@@ -15933,7 +15825,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.544991477727666</v>
+        <v>1.538323230812557</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.738481185272795</v>
@@ -16022,7 +15914,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.539914717781021</v>
+        <v>1.531687189783453</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.710782771367414</v>
@@ -16111,7 +16003,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.552646017676005</v>
+        <v>1.540435091702131</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.797114447544093</v>
@@ -16200,7 +16092,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.557767997137538</v>
+        <v>1.541504587341638</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.923191256995223</v>
@@ -16289,7 +16181,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.560852799632136</v>
+        <v>1.546887975742025</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.671262216895758</v>
@@ -16378,7 +16270,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.568356629094338</v>
+        <v>1.550959877624584</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.702895335886307</v>
@@ -16467,7 +16359,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.573439436568359</v>
+        <v>1.552959283844086</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.898410164237515</v>
@@ -16556,7 +16448,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.581937809669081</v>
+        <v>1.560241733294006</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.865211810745735</v>
@@ -16645,7 +16537,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.588809850486174</v>
+        <v>1.562177764219631</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.795429404755472</v>
@@ -16734,7 +16626,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606877552056669</v>
+        <v>1.571680314613169</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.849113994552364</v>
@@ -16823,7 +16715,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.596187320024644</v>
+        <v>1.560611707795035</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.06327921828227</v>
@@ -16912,7 +16804,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.602372463216496</v>
+        <v>1.566264315085651</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.997027318905109</v>
@@ -17001,7 +16893,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.606123111029124</v>
+        <v>1.569442149446232</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.055353830120549</v>
@@ -17090,7 +16982,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.622105891171562</v>
+        <v>1.589863562375059</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.701791063611656</v>
@@ -17179,7 +17071,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.615873288559102</v>
+        <v>1.586344735681818</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.964923851314358</v>
@@ -17268,7 +17160,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.60179289499412</v>
+        <v>1.568363530174894</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.030582285053363</v>
@@ -17357,7 +17249,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.572211209367745</v>
+        <v>1.545467558607944</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.374655771503406</v>
@@ -17446,7 +17338,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.53644240729956</v>
+        <v>1.510800963168435</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.413499450623123</v>
@@ -17535,7 +17427,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.519595635153366</v>
+        <v>1.489132811723436</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.594840061905216</v>
@@ -17624,7 +17516,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.528495215271279</v>
+        <v>1.496388106115526</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.465393792730931</v>
@@ -17713,7 +17605,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.48959023483721</v>
+        <v>1.465529109274791</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.463822040890869</v>
@@ -17802,7 +17694,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.468615501168167</v>
+        <v>1.446621310577844</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.652870926900591</v>
@@ -17891,7 +17783,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.45262545539768</v>
+        <v>1.426477235918691</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.488005472909411</v>
@@ -17980,7 +17872,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.458420048396206</v>
+        <v>1.430843537934399</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.562996980151809</v>
@@ -18069,7 +17961,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.462167059461026</v>
+        <v>1.437157026750592</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.665945599346563</v>
@@ -18158,7 +18050,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.462640383479977</v>
+        <v>1.449946146173333</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.736752067847537</v>
@@ -18247,7 +18139,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.458678366467685</v>
+        <v>1.443351430283496</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.659182616451544</v>
@@ -18336,7 +18228,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.46431859603248</v>
+        <v>1.452010257467935</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.566565369491892</v>
@@ -18425,7 +18317,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.433498957559723</v>
+        <v>1.416377093666046</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.508360687196717</v>
@@ -18514,7 +18406,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.436031079646783</v>
+        <v>1.41454804254065</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.601383777816165</v>
@@ -18603,7 +18495,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.421950261215643</v>
+        <v>1.402757042388563</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.639022852628802</v>
@@ -18692,7 +18584,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.43703198667755</v>
+        <v>1.415644997074631</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.447477691301708</v>
@@ -18781,7 +18673,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.446815680038139</v>
+        <v>1.426168337151911</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.603950662535137</v>
@@ -18870,7 +18762,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.453790150852649</v>
+        <v>1.437559330497967</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.537948716895269</v>
@@ -18959,7 +18851,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.443599303552401</v>
+        <v>1.430368657018885</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.570331525603046</v>
@@ -19048,7 +18940,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.479237896950638</v>
+        <v>1.459936239970429</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.461230608655197</v>
@@ -19137,7 +19029,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.490648552374149</v>
+        <v>1.473254278275346</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.465244018126799</v>
@@ -19423,7 +19315,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.659901165068798</v>
+        <v>1.661664813074307</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.600933376945642</v>
@@ -19512,7 +19404,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.657396004233403</v>
+        <v>1.65440873770066</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.537794970850777</v>
@@ -19601,7 +19493,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.665345092202233</v>
+        <v>1.664762241716319</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.578033534492361</v>
@@ -19690,7 +19582,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.656687704323264</v>
+        <v>1.656102758983903</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.626294130447965</v>
@@ -19779,7 +19671,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.626601380841062</v>
+        <v>1.635638241930015</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.589383052900777</v>
@@ -19868,7 +19760,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.644688345999068</v>
+        <v>1.65075339765079</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.358140115008968</v>
@@ -19957,7 +19849,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.652042947121632</v>
+        <v>1.658728957774419</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.539126859477892</v>
@@ -20046,7 +19938,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.625645995610089</v>
+        <v>1.632927794734817</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.518890287313246</v>
@@ -20135,7 +20027,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.601995096624343</v>
+        <v>1.612397845623915</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.626531976053514</v>
@@ -20224,7 +20116,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.602709469717462</v>
+        <v>1.615053467326707</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.648280587370662</v>
@@ -20313,7 +20205,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.622623517915925</v>
+        <v>1.634673674898821</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.262314124089769</v>
@@ -20402,7 +20294,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.629180766887813</v>
+        <v>1.639862582869961</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.921281348817172</v>
@@ -20491,7 +20383,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.632241661762706</v>
+        <v>1.648034760890872</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.974720642383088</v>
@@ -20580,7 +20472,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.627112453725811</v>
+        <v>1.636081226851013</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.923488456575631</v>
@@ -20669,7 +20561,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.598092754340623</v>
+        <v>1.60976454597825</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.50193917777098</v>
@@ -20758,7 +20650,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.565058585152347</v>
+        <v>1.578901893756959</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.650108685591137</v>
@@ -20847,7 +20739,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.57101384524962</v>
+        <v>1.592993183738394</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.602863410300054</v>
@@ -20936,7 +20828,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.549938160898768</v>
+        <v>1.572043056420428</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.675055955589767</v>
@@ -21025,7 +20917,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.553113711600073</v>
+        <v>1.575290701996162</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.661355962996284</v>
@@ -21114,7 +21006,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.558134763017509</v>
+        <v>1.571166713589718</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.658044092840191</v>
@@ -21203,7 +21095,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548879875604336</v>
+        <v>1.571366638842181</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.627385134805123</v>
@@ -21292,7 +21184,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.552557313675253</v>
+        <v>1.574366907255385</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.514408509335679</v>
@@ -21381,7 +21273,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.532694323097254</v>
+        <v>1.552815958811801</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.52493079512645</v>
@@ -21470,7 +21362,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.537902897124737</v>
+        <v>1.55474815985149</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.558595929588025</v>
@@ -21559,7 +21451,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.539044819573007</v>
+        <v>1.55529559795477</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.691341018130718</v>
@@ -21648,7 +21540,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.542020037153482</v>
+        <v>1.557947066664992</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.751568151296908</v>
@@ -21737,7 +21629,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.543488897034264</v>
+        <v>1.55794624296598</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.688267334515644</v>
@@ -21826,7 +21718,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.539326555661393</v>
+        <v>1.550814831164967</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.739392884191806</v>
@@ -21915,7 +21807,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.534411644403551</v>
+        <v>1.54821371363251</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.442324223945212</v>
@@ -22004,7 +21896,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.56178611013469</v>
+        <v>1.570221988506498</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.434867948091564</v>
@@ -22093,7 +21985,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.593670979680575</v>
+        <v>1.595244550997023</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.7930562557601</v>
@@ -22182,7 +22074,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.591627230998583</v>
+        <v>1.590453853675132</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.746449460068829</v>
@@ -22271,7 +22163,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.613216320666664</v>
+        <v>1.604799693738679</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.906681450501155</v>
@@ -22360,7 +22252,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.629620235263698</v>
+        <v>1.615115994714125</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.185887845253923</v>
@@ -22449,7 +22341,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.62402550271407</v>
+        <v>1.611576619375143</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.796772081821246</v>
@@ -22538,7 +22430,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.625946713523049</v>
+        <v>1.603214524796422</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.941149016789554</v>
@@ -22627,7 +22519,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.625454178314257</v>
+        <v>1.600435013754986</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.981909794242125</v>
@@ -22716,7 +22608,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.669534352541174</v>
+        <v>1.646666474528721</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.011915610564207</v>
@@ -22805,7 +22697,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.673082090484239</v>
+        <v>1.653056233569884</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.171973042210185</v>
@@ -22894,7 +22786,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.650376997735683</v>
+        <v>1.63586672668515</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.031110744461572</v>
@@ -22983,7 +22875,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.599480225497172</v>
+        <v>1.591677941245343</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.353022146298691</v>
@@ -23072,7 +22964,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.548602062078504</v>
+        <v>1.536883674470126</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.359978362131664</v>
@@ -23161,7 +23053,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.530157888672719</v>
+        <v>1.509158921791647</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.560302043033716</v>
@@ -23250,7 +23142,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.54010071787296</v>
+        <v>1.517609047088894</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.403694366458496</v>
@@ -23339,7 +23231,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.490655310114785</v>
+        <v>1.477397658514641</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.266160463413865</v>
@@ -23428,7 +23320,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.462118674255808</v>
+        <v>1.448971306975023</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.274068236453263</v>
@@ -23517,7 +23409,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.45164160603063</v>
+        <v>1.4329019933361</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.33547551495736</v>
@@ -23606,7 +23498,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.449302071756581</v>
+        <v>1.427998329099978</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.305138541291405</v>
@@ -23695,7 +23587,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.447826112044744</v>
+        <v>1.423140838435327</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.389635688102812</v>
@@ -23784,7 +23676,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.43807266411905</v>
+        <v>1.422434682387412</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.388628479955356</v>
@@ -23873,7 +23765,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.437171745717407</v>
+        <v>1.424494705991792</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.385182800924674</v>
@@ -23962,7 +23854,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.439381432734575</v>
+        <v>1.428705046311411</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.401646244307515</v>
@@ -24051,7 +23943,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.396274773252761</v>
+        <v>1.380338678611941</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.342990955159349</v>
@@ -24140,7 +24032,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.392158196841286</v>
+        <v>1.373675954635875</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.395499767664204</v>
@@ -24229,7 +24121,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.367332889347379</v>
+        <v>1.345195845375315</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.344956586715022</v>
@@ -24318,7 +24210,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.377384248158158</v>
+        <v>1.354534810481645</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.366232176307995</v>
@@ -24407,7 +24299,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.391710519011947</v>
+        <v>1.371696821195427</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.28655161259404</v>
@@ -24496,7 +24388,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.382463830865035</v>
+        <v>1.365596414675161</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.290928323298625</v>
@@ -24585,7 +24477,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.370271769417672</v>
+        <v>1.356066207793399</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.244783699877197</v>
@@ -24674,7 +24566,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.398253272950602</v>
+        <v>1.381800435944677</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.167001421250141</v>
@@ -24763,7 +24655,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.40412442854658</v>
+        <v>1.386277901024695</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.179585408378189</v>
@@ -25049,7 +24941,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.508840556907002</v>
+        <v>1.525096956895525</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.564883095677316</v>
@@ -25138,7 +25030,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.511267023566107</v>
+        <v>1.527352593641335</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.415555650653813</v>
@@ -25227,7 +25119,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.514952581513308</v>
+        <v>1.529063096031079</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.375923156415614</v>
@@ -25316,7 +25208,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.514396201414005</v>
+        <v>1.521660651802642</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.438068828375378</v>
@@ -25405,7 +25297,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.508576483939693</v>
+        <v>1.524137843743046</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.458878061088275</v>
@@ -25494,7 +25386,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.504302465523327</v>
+        <v>1.51860032058953</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.212304292627763</v>
@@ -25583,7 +25475,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.510416336202826</v>
+        <v>1.522914953765983</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.330145997019311</v>
@@ -25672,7 +25564,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.49849708117127</v>
+        <v>1.509810367867898</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.41803898796039</v>
@@ -25761,7 +25653,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.480556049916098</v>
+        <v>1.489845574520475</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.479389761005072</v>
@@ -25850,7 +25742,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.479138702948622</v>
+        <v>1.487791846416313</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.460014360047104</v>
@@ -25939,7 +25831,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.499800020318719</v>
+        <v>1.504459661032844</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.093807966475407</v>
@@ -26028,7 +25920,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.50188468673024</v>
+        <v>1.506221899004975</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.403745472790127</v>
@@ -26117,7 +26009,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.510221581906817</v>
+        <v>1.519031762598771</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.571390908019241</v>
@@ -26206,7 +26098,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.49189260073772</v>
+        <v>1.497470520571871</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.449193652296905</v>
@@ -26295,7 +26187,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.480040322333807</v>
+        <v>1.487681088956923</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.631086949717756</v>
@@ -26384,7 +26276,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.450039961741244</v>
+        <v>1.459638081811591</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.517706932402552</v>
@@ -26473,7 +26365,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.43733454866022</v>
+        <v>1.449434333843997</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.639526416372295</v>
@@ -26562,7 +26454,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.419738926086907</v>
+        <v>1.436376914598751</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.468759646329844</v>
@@ -26651,7 +26543,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.425012878571332</v>
+        <v>1.440453357693824</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.59552156744728</v>
@@ -26740,7 +26632,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.431728862613816</v>
+        <v>1.442456566991967</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.548473988562008</v>
@@ -26829,7 +26721,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.427162177229488</v>
+        <v>1.442250574146523</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.701292067441861</v>
@@ -26918,7 +26810,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.425741290244744</v>
+        <v>1.441151949676878</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.695154330715356</v>
@@ -27007,7 +26899,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.417397843467269</v>
+        <v>1.427975391033413</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.490761722271076</v>
@@ -27096,7 +26988,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.418986138493793</v>
+        <v>1.432652542022573</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.531497007375099</v>
@@ -27185,7 +27077,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.418516936615662</v>
+        <v>1.427585722710093</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.654778205887213</v>
@@ -27274,7 +27166,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.424943322445582</v>
+        <v>1.432741513644251</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.674045910348207</v>
@@ -27363,7 +27255,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.423248442336079</v>
+        <v>1.424658321236899</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.501731632630115</v>
@@ -27452,7 +27344,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.411449395295592</v>
+        <v>1.409874858896846</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.638024135797123</v>
@@ -27541,7 +27433,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.415894754083348</v>
+        <v>1.411388144498618</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.487730242244061</v>
@@ -27630,7 +27522,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.429829189269051</v>
+        <v>1.421574300659673</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.407709445574711</v>
@@ -27719,7 +27611,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.451230429588587</v>
+        <v>1.437325685449788</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.751057159560086</v>
@@ -27808,7 +27700,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.466261356872628</v>
+        <v>1.4466821060769</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.598694622673742</v>
@@ -27897,7 +27789,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.471235128612059</v>
+        <v>1.441147253721259</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.815790448431744</v>
@@ -27986,7 +27878,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.476379538166642</v>
+        <v>1.439385325087774</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.875980277090341</v>
@@ -28075,7 +27967,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.468169525641938</v>
+        <v>1.429094634996714</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.587102734320998</v>
@@ -28164,7 +28056,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.467535759450727</v>
+        <v>1.427245391161064</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.911367413238857</v>
@@ -28253,7 +28145,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.475259260904451</v>
+        <v>1.431532897733184</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.735091016414616</v>
@@ -28342,7 +28234,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.506947336976995</v>
+        <v>1.468116175953474</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.673275295942235</v>
@@ -28431,7 +28323,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.514281193970853</v>
+        <v>1.472629938191872</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.921810837400681</v>
@@ -28520,7 +28412,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.504073445861683</v>
+        <v>1.467510070311494</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.126725684289598</v>
@@ -28609,7 +28501,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.468102788744107</v>
+        <v>1.43881403715095</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.160016092278103</v>
@@ -28698,7 +28590,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.436451994587644</v>
+        <v>1.401922309780142</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.229861062215605</v>
@@ -28787,7 +28679,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.427313189301924</v>
+        <v>1.385219170062844</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.323781367031283</v>
@@ -28876,7 +28768,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.438624074600962</v>
+        <v>1.395571396493994</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.219733191275014</v>
@@ -28965,7 +28857,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.395171137400188</v>
+        <v>1.359690490779618</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.168750937959542</v>
@@ -29054,7 +28946,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.377106714334384</v>
+        <v>1.341056944877499</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.169934450399854</v>
@@ -29143,7 +29035,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.374250292300088</v>
+        <v>1.335038709851766</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.188015934511732</v>
@@ -29232,7 +29124,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.3801268148259</v>
+        <v>1.33980327868975</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.176378744402959</v>
@@ -29321,7 +29213,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.377614558200903</v>
+        <v>1.333214193486831</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.24107095689598</v>
@@ -29410,7 +29302,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.375723940567124</v>
+        <v>1.340648991201335</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.246719662390096</v>
@@ -29499,7 +29391,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.371529726799436</v>
+        <v>1.336250178170105</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.249115751179196</v>
@@ -29588,7 +29480,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.374470302350506</v>
+        <v>1.343919468872173</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.281915801105301</v>
@@ -29677,7 +29569,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.339114867237739</v>
+        <v>1.301979252766232</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.273213030831933</v>
@@ -29766,7 +29658,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.333822885616123</v>
+        <v>1.29332659894959</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.26179096258964</v>
@@ -29855,7 +29747,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.310837016735533</v>
+        <v>1.269464162508374</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.271466172418385</v>
@@ -29944,7 +29836,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.324027254071933</v>
+        <v>1.281022616356544</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.295983444165212</v>
@@ -30033,7 +29925,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.333710141240613</v>
+        <v>1.295095674278871</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.21496078610587</v>
@@ -30122,7 +30014,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.323912027229808</v>
+        <v>1.290697534021753</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.197233031173736</v>
@@ -30211,7 +30103,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.311432222451317</v>
+        <v>1.281047813319711</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.144649765333595</v>
@@ -30300,7 +30192,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.335752325945559</v>
+        <v>1.304465967046765</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.099397357730584</v>
@@ -30389,7 +30281,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.341470910021402</v>
+        <v>1.308845161989919</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.123153734445224</v>
@@ -30675,7 +30567,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.535433284458167</v>
+        <v>1.579128073259811</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.749844249501453</v>
@@ -30764,7 +30656,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.537508784701628</v>
+        <v>1.58178665371558</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.843793360788534</v>
@@ -30853,7 +30745,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.581000048669492</v>
+        <v>1.627782738222049</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.656970266345052</v>
@@ -30942,7 +30834,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.592441662415024</v>
+        <v>1.638401128903598</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.59248292608053</v>
@@ -31031,7 +30923,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.581036792267152</v>
+        <v>1.63128013184947</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.687240923747315</v>
@@ -31120,7 +31012,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.605398486428193</v>
+        <v>1.651176126857584</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.435962797470721</v>
@@ -31209,7 +31101,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.639361504484317</v>
+        <v>1.684423756813726</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.653701758570247</v>
@@ -31298,7 +31190,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.649017316712983</v>
+        <v>1.688094546751768</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.700028852925747</v>
@@ -31387,7 +31279,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.631154386101998</v>
+        <v>1.668711589187013</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.889957019990319</v>
@@ -31476,7 +31368,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.644338136683266</v>
+        <v>1.675180771153073</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.867826234717583</v>
@@ -31565,7 +31457,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.657427052164574</v>
+        <v>1.68739076875918</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.505450572171001</v>
@@ -31654,7 +31546,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.634227450256184</v>
+        <v>1.662680332024624</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.691473075406119</v>
@@ -31743,7 +31635,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.632342187594914</v>
+        <v>1.659349004253418</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.994990799999464</v>
@@ -31832,7 +31724,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.652085336086269</v>
+        <v>1.676154063958989</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.042496776872711</v>
@@ -31921,7 +31813,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.662598729433318</v>
+        <v>1.681116417043004</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.50041217464624</v>
@@ -32010,7 +31902,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.644131407720275</v>
+        <v>1.66062902549566</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.954003499629649</v>
@@ -32099,7 +31991,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.606851235994557</v>
+        <v>1.631378449354296</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.898725410248583</v>
@@ -32188,7 +32080,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.578904034057106</v>
+        <v>1.606115885347219</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.11438647879695</v>
@@ -32277,7 +32169,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574538484966265</v>
+        <v>1.599277985223919</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.030690117831753</v>
@@ -32366,7 +32258,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.582683442633209</v>
+        <v>1.607107527239279</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.976887909039385</v>
@@ -32455,7 +32347,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.579871356435671</v>
+        <v>1.610881483395052</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.122283695443496</v>
@@ -32544,7 +32436,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.561387638796378</v>
+        <v>1.590919653397181</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.91696311477027</v>
@@ -32633,7 +32525,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.527028615380701</v>
+        <v>1.554816145496932</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.671095574385591</v>
@@ -32722,7 +32614,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.516640392237708</v>
+        <v>1.550463156425661</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.822536590816853</v>
@@ -32811,7 +32703,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.525635845403891</v>
+        <v>1.562025433623347</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.759570511509427</v>
@@ -32900,7 +32792,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.534191497460696</v>
+        <v>1.570012320125955</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.838534405493181</v>
@@ -32989,7 +32881,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.549578117256934</v>
+        <v>1.585597465572661</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.955562875212879</v>
@@ -33078,7 +32970,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.551741907068697</v>
+        <v>1.587169784590008</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.795944514222612</v>
@@ -33167,7 +33059,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538902789472071</v>
+        <v>1.576747013907899</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.725434353124153</v>
@@ -33256,7 +33148,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.552183722929871</v>
+        <v>1.588634155617674</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.674700369105615</v>
@@ -33345,7 +33237,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.569235494630208</v>
+        <v>1.605998013422426</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.466966158803371</v>
@@ -33434,7 +33326,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.600107828963755</v>
+        <v>1.635584741404727</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.39037585481053</v>
@@ -33523,7 +33415,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.617705828307588</v>
+        <v>1.648088050760176</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.682144895180442</v>
@@ -33612,7 +33504,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.62404319654156</v>
+        <v>1.654428776785039</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.717777406344091</v>
@@ -33701,7 +33593,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.62379528996406</v>
+        <v>1.652515628137464</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.134025785589042</v>
@@ -33790,7 +33682,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.610553373543167</v>
+        <v>1.634585751601108</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.786483474748371</v>
@@ -33879,7 +33771,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.598596678211165</v>
+        <v>1.624266292730625</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.11584713122246</v>
@@ -33968,7 +33860,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.654571885567201</v>
+        <v>1.681667969019245</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.982761176614358</v>
@@ -34057,7 +33949,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.653900073902793</v>
+        <v>1.681861911590454</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.170453992736485</v>
@@ -34146,7 +34038,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.642080962698643</v>
+        <v>1.668294421563009</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.863389121685934</v>
@@ -34235,7 +34127,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.608336571320677</v>
+        <v>1.639159383808093</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.688612703462506</v>
@@ -34324,7 +34216,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.577767883992892</v>
+        <v>1.603391008830221</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.66791845466949</v>
@@ -34413,7 +34305,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.55813109783214</v>
+        <v>1.574482356684633</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.794655461914618</v>
@@ -34502,7 +34394,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.569697787789173</v>
+        <v>1.582553439146877</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.570791569979883</v>
@@ -34591,7 +34483,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.52843683495012</v>
+        <v>1.546915430440655</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.549875215979784</v>
@@ -34680,7 +34572,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.505402433659165</v>
+        <v>1.521288430302759</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.519944922021802</v>
@@ -34769,7 +34661,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.497901760184067</v>
+        <v>1.50875056575221</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.553662508713418</v>
@@ -34858,7 +34750,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.49486386118335</v>
+        <v>1.501404295257979</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.500889586620805</v>
@@ -34947,7 +34839,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.495962848790418</v>
+        <v>1.49716096281641</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.612265699865341</v>
@@ -35036,7 +34928,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.484571480585968</v>
+        <v>1.488360305437859</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.588866895833653</v>
@@ -35125,7 +35017,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.497284484270654</v>
+        <v>1.49782702385731</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.62788106177575</v>
@@ -35214,7 +35106,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.508075297643633</v>
+        <v>1.512126221193289</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.52432866395291</v>
@@ -35303,7 +35195,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.465629416308399</v>
+        <v>1.465291182452598</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.532444637858197</v>
@@ -35392,7 +35284,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.466633692428118</v>
+        <v>1.464067276250601</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.534156735409761</v>
@@ -35481,7 +35373,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.437257971781302</v>
+        <v>1.43431602901144</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.43681844074123</v>
@@ -35570,7 +35462,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.443716784240201</v>
+        <v>1.43680071418552</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.647389417056609</v>
@@ -35659,7 +35551,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.455381125851517</v>
+        <v>1.452328387778291</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.383146047848384</v>
@@ -35748,7 +35640,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.444992629345176</v>
+        <v>1.447625372382971</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.384012960250252</v>
@@ -35837,7 +35729,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.434502537577007</v>
+        <v>1.437295430271756</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.340512031014986</v>
@@ -35926,7 +35818,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.467805903902033</v>
+        <v>1.471192426860267</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.279848153985255</v>
@@ -36015,7 +35907,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.478340420493573</v>
+        <v>1.47981021000746</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.315381879139926</v>
